--- a/SE357-Requirement engineering/SE357.N11.1_22-09-27.xlsx
+++ b/SE357-Requirement engineering/SE357.N11.1_22-09-27.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\SE357-Requirement engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5352EC-F2CF-4521-826A-F3B424DBC357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB7E1F-6475-4F16-850A-9599CFACC8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Họ và tên sinh viên</t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>16521001</t>
   </si>
   <si>
@@ -293,6 +290,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Buổi 1</t>
+  </si>
+  <si>
+    <t>Buổi 2</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#######"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -359,6 +362,10 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -377,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -444,11 +451,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -496,9 +531,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,21 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +562,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -851,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -860,7 +899,7 @@
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
@@ -868,11 +907,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -882,11 +921,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -904,23 +943,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -930,11 +969,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -944,11 +983,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -958,7 +997,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -978,533 +1017,593 @@
         <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>1</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>2</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>3</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>4</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <v>5</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <v>6</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>7</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>8</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>9</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <v>10</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
-        <v>10</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>11</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>11</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="39"/>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <v>12</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>12</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="39"/>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <v>13</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>14</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <v>14</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="D23" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
+        <v>15</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>15</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="D24" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="39"/>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
+        <v>16</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <v>16</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>17</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <v>17</v>
-      </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
+        <v>18</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <v>18</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
+        <v>19</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <v>19</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
+        <v>20</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
-        <v>20</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
+        <v>21</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
-        <v>21</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
+        <v>22</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
-        <v>22</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
+        <v>23</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <v>23</v>
-      </c>
-      <c r="B32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
+        <v>24</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
-        <v>24</v>
-      </c>
-      <c r="B33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
+        <v>25</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
-        <v>25</v>
-      </c>
-      <c r="B34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="D34" s="37"/>
+      <c r="E34" s="39"/>
+    </row>
+    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22">
+        <v>26</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
-        <v>26</v>
-      </c>
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22">
+        <v>27</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23">
-        <v>27</v>
-      </c>
-      <c r="B36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="D36" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="39"/>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22">
+        <v>28</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
-        <v>28</v>
-      </c>
-      <c r="B37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="D37" s="37"/>
+      <c r="E37" s="39"/>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22">
+        <v>29</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
-        <v>29</v>
-      </c>
-      <c r="B38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="22">
+        <v>30</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
-        <v>30</v>
-      </c>
-      <c r="B39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="D39" s="37"/>
+      <c r="E39" s="39"/>
+    </row>
+    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="22">
+        <v>31</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
-        <v>31</v>
-      </c>
-      <c r="B40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="D40" s="37"/>
+      <c r="E40" s="39"/>
+    </row>
+    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22">
+        <v>32</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
-        <v>32</v>
-      </c>
-      <c r="B41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="D41" s="37"/>
+      <c r="E41" s="39"/>
+    </row>
+    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
+        <v>33</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
-        <v>33</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="D42" s="37"/>
+      <c r="E42" s="39"/>
+    </row>
+    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22">
+        <v>34</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
-        <v>34</v>
-      </c>
-      <c r="B43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D43" s="37"/>
+      <c r="E43" s="39"/>
+    </row>
+    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22">
+        <v>35</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
-        <v>35</v>
-      </c>
-      <c r="B44" s="19" t="s">
+      <c r="C44" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="D44" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="39"/>
+    </row>
+    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22">
+        <v>36</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23">
-        <v>36</v>
-      </c>
-      <c r="B45" s="19" t="s">
+      <c r="C45" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="D45" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="39"/>
+    </row>
+    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22">
+        <v>37</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23">
-        <v>37</v>
-      </c>
-      <c r="B46" s="19" t="s">
+      <c r="C46" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="D46" s="37"/>
+      <c r="E46" s="39"/>
+    </row>
+    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="22">
+        <v>38</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23">
-        <v>38</v>
-      </c>
-      <c r="B47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1516,6 +1615,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="D50:E50"/>
@@ -1523,13 +1628,8 @@
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:H51"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
 </worksheet>
 </file>